--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H2">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I2">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J2">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N2">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O2">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P2">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q2">
-        <v>435.9798651807831</v>
+        <v>333.9874985532218</v>
       </c>
       <c r="R2">
-        <v>3923.818786627047</v>
+        <v>3005.887486978996</v>
       </c>
       <c r="S2">
-        <v>0.106605983902344</v>
+        <v>0.1014853250166562</v>
       </c>
       <c r="T2">
-        <v>0.106605983902344</v>
+        <v>0.1014853250166562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H3">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I3">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J3">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>2.037896</v>
       </c>
       <c r="O3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P3">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q3">
-        <v>56.482347952856</v>
+        <v>49.12302160977244</v>
       </c>
       <c r="R3">
-        <v>508.341131575704</v>
+        <v>442.107194487952</v>
       </c>
       <c r="S3">
-        <v>0.01381108798254239</v>
+        <v>0.0149265042418154</v>
       </c>
       <c r="T3">
-        <v>0.01381108798254239</v>
+        <v>0.0149265042418154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H4">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I4">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J4">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N4">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O4">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P4">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q4">
-        <v>35.74223519346801</v>
+        <v>34.63400379713133</v>
       </c>
       <c r="R4">
-        <v>321.6801167412121</v>
+        <v>311.706034174182</v>
       </c>
       <c r="S4">
-        <v>0.008739706702025458</v>
+        <v>0.01052387633431099</v>
       </c>
       <c r="T4">
-        <v>0.008739706702025458</v>
+        <v>0.01052387633431099</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.0559436666667</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H5">
-        <v>462.167831</v>
+        <v>216.942962</v>
       </c>
       <c r="I5">
-        <v>0.2393005425173851</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J5">
-        <v>0.2393005425173851</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.243417666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N5">
-        <v>15.730253</v>
+        <v>0.334861</v>
       </c>
       <c r="O5">
-        <v>0.8253998362974575</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P5">
-        <v>0.8253998362974574</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q5">
-        <v>807.7796566768048</v>
+        <v>8.071748577586888</v>
       </c>
       <c r="R5">
-        <v>7270.016910091244</v>
+        <v>72.64573719828201</v>
       </c>
       <c r="S5">
-        <v>0.1975186286197424</v>
+        <v>0.002452678712220127</v>
       </c>
       <c r="T5">
-        <v>0.1975186286197424</v>
+        <v>0.002452678712220128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>462.167831</v>
       </c>
       <c r="I6">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J6">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6792986666666666</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N6">
-        <v>2.037896</v>
+        <v>13.855658</v>
       </c>
       <c r="O6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P6">
-        <v>0.1069327381315001</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q6">
-        <v>104.6499971248418</v>
+        <v>711.5154894375332</v>
       </c>
       <c r="R6">
-        <v>941.8499741235761</v>
+        <v>6403.639404937799</v>
       </c>
       <c r="S6">
-        <v>0.02558906224773743</v>
+        <v>0.2162008488723318</v>
       </c>
       <c r="T6">
-        <v>0.02558906224773744</v>
+        <v>0.2162008488723318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>462.167831</v>
       </c>
       <c r="I7">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J7">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4298626666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N7">
-        <v>1.289588</v>
+        <v>2.037896</v>
       </c>
       <c r="O7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P7">
-        <v>0.06766742557104236</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q7">
-        <v>66.22289876040313</v>
+        <v>104.6499971248418</v>
       </c>
       <c r="R7">
-        <v>596.0060888436282</v>
+        <v>941.8499741235761</v>
       </c>
       <c r="S7">
-        <v>0.01619285164990521</v>
+        <v>0.03179891168745139</v>
       </c>
       <c r="T7">
-        <v>0.01619285164990521</v>
+        <v>0.03179891168745141</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>154.1469826666666</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H8">
-        <v>462.4409479999999</v>
+        <v>462.167831</v>
       </c>
       <c r="I8">
-        <v>0.2394419566139251</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J8">
-        <v>0.2394419566139251</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.243417666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N8">
-        <v>15.730253</v>
+        <v>1.436811</v>
       </c>
       <c r="O8">
-        <v>0.8253998362974575</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P8">
-        <v>0.8253998362974574</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q8">
-        <v>808.2570121777603</v>
+        <v>73.78309149188235</v>
       </c>
       <c r="R8">
-        <v>7274.313109599842</v>
+        <v>664.047823426941</v>
       </c>
       <c r="S8">
-        <v>0.1976353517918767</v>
+        <v>0.02241970448961023</v>
       </c>
       <c r="T8">
-        <v>0.1976353517918766</v>
+        <v>0.02241970448961024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>154.1469826666666</v>
+        <v>154.0559436666667</v>
       </c>
       <c r="H9">
-        <v>462.4409479999999</v>
+        <v>462.167831</v>
       </c>
       <c r="I9">
-        <v>0.2394419566139251</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J9">
-        <v>0.2394419566139251</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.6792986666666666</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N9">
-        <v>2.037896</v>
+        <v>0.334861</v>
       </c>
       <c r="O9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P9">
-        <v>0.1069327381315001</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q9">
-        <v>104.7118397961564</v>
+        <v>17.19577578405456</v>
       </c>
       <c r="R9">
-        <v>942.4065581654079</v>
+        <v>154.761982056491</v>
       </c>
       <c r="S9">
-        <v>0.02560418404429085</v>
+        <v>0.005225102442210821</v>
       </c>
       <c r="T9">
-        <v>0.02560418404429085</v>
+        <v>0.005225102442210822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H10">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I10">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J10">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4298626666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N10">
-        <v>1.289588</v>
+        <v>13.855658</v>
       </c>
       <c r="O10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P10">
-        <v>0.06766742557104236</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q10">
-        <v>66.26203302771378</v>
+        <v>776.1693550509096</v>
       </c>
       <c r="R10">
-        <v>596.358297249424</v>
+        <v>6985.524195458187</v>
       </c>
       <c r="S10">
-        <v>0.01620242077775753</v>
+        <v>0.235846549965276</v>
       </c>
       <c r="T10">
-        <v>0.01620242077775753</v>
+        <v>0.235846549965276</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,61 +1098,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>119.5626293333333</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H11">
-        <v>358.687888</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I11">
-        <v>0.1857208581720069</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J11">
-        <v>0.185720858172007</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>5.243417666666667</v>
+        <v>0.6792986666666666</v>
       </c>
       <c r="N11">
-        <v>15.730253</v>
+        <v>2.037896</v>
       </c>
       <c r="O11">
-        <v>0.8253998362974575</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P11">
-        <v>0.8253998362974574</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q11">
-        <v>626.9168029195183</v>
+        <v>114.1593148431369</v>
       </c>
       <c r="R11">
-        <v>5642.251226275665</v>
+        <v>1027.433833588232</v>
       </c>
       <c r="S11">
-        <v>0.1532939659321979</v>
+        <v>0.03468840965820865</v>
       </c>
       <c r="T11">
-        <v>0.1532939659321979</v>
+        <v>0.03468840965820866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>119.5626293333333</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H12">
-        <v>358.687888</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I12">
-        <v>0.1857208581720069</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J12">
-        <v>0.185720858172007</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6792986666666666</v>
+        <v>0.478937</v>
       </c>
       <c r="N12">
-        <v>2.037896</v>
+        <v>1.436811</v>
       </c>
       <c r="O12">
-        <v>0.1069327381315001</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P12">
-        <v>0.1069327381315001</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q12">
-        <v>81.21873468929422</v>
+        <v>80.48760060330967</v>
       </c>
       <c r="R12">
-        <v>730.968612203648</v>
+        <v>724.3884054297871</v>
       </c>
       <c r="S12">
-        <v>0.01985963989246468</v>
+        <v>0.02445693429371295</v>
       </c>
       <c r="T12">
-        <v>0.01985963989246468</v>
+        <v>0.02445693429371295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>119.5626293333333</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H13">
-        <v>358.687888</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I13">
-        <v>0.1857208581720069</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J13">
-        <v>0.185720858172007</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4298626666666667</v>
+        <v>0.1116203333333333</v>
       </c>
       <c r="N13">
-        <v>1.289588</v>
+        <v>0.334861</v>
       </c>
       <c r="O13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983873</v>
       </c>
       <c r="P13">
-        <v>0.06766742557104236</v>
+        <v>0.01895594202983874</v>
       </c>
       <c r="Q13">
-        <v>51.39551067890491</v>
+        <v>18.75831854407078</v>
       </c>
       <c r="R13">
-        <v>462.5595961101441</v>
+        <v>168.824866896637</v>
       </c>
       <c r="S13">
-        <v>0.01256725234734439</v>
+        <v>0.005699896141195335</v>
       </c>
       <c r="T13">
-        <v>0.01256725234734439</v>
+        <v>0.005699896141195337</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>132.8624013333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H14">
-        <v>398.587204</v>
+        <v>197.456733</v>
       </c>
       <c r="I14">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J14">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.243417666666667</v>
+        <v>4.618552666666667</v>
       </c>
       <c r="N14">
-        <v>15.730253</v>
+        <v>13.855658</v>
       </c>
       <c r="O14">
-        <v>0.8253998362974575</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="P14">
-        <v>0.8253998362974574</v>
+        <v>0.78434648953826</v>
       </c>
       <c r="Q14">
-        <v>696.6530623869569</v>
+        <v>303.988106916146</v>
       </c>
       <c r="R14">
-        <v>6269.877561482612</v>
+        <v>2735.892962245314</v>
       </c>
       <c r="S14">
-        <v>0.1703459060512966</v>
+        <v>0.09236972031953772</v>
       </c>
       <c r="T14">
-        <v>0.1703459060512965</v>
+        <v>0.09236972031953773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>132.8624013333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H15">
-        <v>398.587204</v>
+        <v>197.456733</v>
       </c>
       <c r="I15">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J15">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1370,27 +1370,27 @@
         <v>2.037896</v>
       </c>
       <c r="O15">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191035</v>
       </c>
       <c r="P15">
-        <v>0.1069327381315001</v>
+        <v>0.1153620112191036</v>
       </c>
       <c r="Q15">
-        <v>90.25325207586488</v>
+        <v>44.710698483752</v>
       </c>
       <c r="R15">
-        <v>812.2792686827839</v>
+        <v>402.396286353768</v>
       </c>
       <c r="S15">
-        <v>0.02206876396446472</v>
+        <v>0.01358577727310421</v>
       </c>
       <c r="T15">
-        <v>0.02206876396446472</v>
+        <v>0.01358577727310422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>132.8624013333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H16">
-        <v>398.587204</v>
+        <v>197.456733</v>
       </c>
       <c r="I16">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J16">
-        <v>0.2063798641097711</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4298626666666667</v>
+        <v>0.478937</v>
       </c>
       <c r="N16">
-        <v>1.289588</v>
+        <v>1.436811</v>
       </c>
       <c r="O16">
-        <v>0.06766742557104236</v>
+        <v>0.0813355572127976</v>
       </c>
       <c r="P16">
-        <v>0.06766742557104236</v>
+        <v>0.08133555721279762</v>
       </c>
       <c r="Q16">
-        <v>57.11258613688356</v>
+        <v>31.523111777607</v>
       </c>
       <c r="R16">
-        <v>514.0132752319521</v>
+        <v>283.708005998463</v>
       </c>
       <c r="S16">
-        <v>0.01396519409400977</v>
+        <v>0.009578601768464211</v>
       </c>
       <c r="T16">
-        <v>0.01396519409400977</v>
+        <v>0.009578601768464213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>65.818911</v>
+      </c>
+      <c r="H17">
+        <v>197.456733</v>
+      </c>
+      <c r="I17">
+        <v>0.11776647381174</v>
+      </c>
+      <c r="J17">
+        <v>0.11776647381174</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.334861</v>
+      </c>
+      <c r="O17">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P17">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q17">
+        <v>7.346728785457</v>
+      </c>
+      <c r="R17">
+        <v>66.12055906911301</v>
+      </c>
+      <c r="S17">
+        <v>0.002232374450633865</v>
+      </c>
+      <c r="T17">
+        <v>0.002232374450633866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>98.64960366666666</v>
+      </c>
+      <c r="H18">
+        <v>295.948811</v>
+      </c>
+      <c r="I18">
+        <v>0.17650878433326</v>
+      </c>
+      <c r="J18">
+        <v>0.1765087843332599</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.618552666666667</v>
+      </c>
+      <c r="N18">
+        <v>13.855658</v>
+      </c>
+      <c r="O18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="P18">
+        <v>0.78434648953826</v>
+      </c>
+      <c r="Q18">
+        <v>455.6183900802931</v>
+      </c>
+      <c r="R18">
+        <v>4100.565510722638</v>
+      </c>
+      <c r="S18">
+        <v>0.1384440453644583</v>
+      </c>
+      <c r="T18">
+        <v>0.1384440453644583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>98.64960366666666</v>
+      </c>
+      <c r="H19">
+        <v>295.948811</v>
+      </c>
+      <c r="I19">
+        <v>0.17650878433326</v>
+      </c>
+      <c r="J19">
+        <v>0.1765087843332599</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.6792986666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.037896</v>
+      </c>
+      <c r="O19">
+        <v>0.1153620112191035</v>
+      </c>
+      <c r="P19">
+        <v>0.1153620112191036</v>
+      </c>
+      <c r="Q19">
+        <v>67.01254423796178</v>
+      </c>
+      <c r="R19">
+        <v>603.1128981416559</v>
+      </c>
+      <c r="S19">
+        <v>0.02036240835852386</v>
+      </c>
+      <c r="T19">
+        <v>0.02036240835852387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>98.64960366666666</v>
+      </c>
+      <c r="H20">
+        <v>295.948811</v>
+      </c>
+      <c r="I20">
+        <v>0.17650878433326</v>
+      </c>
+      <c r="J20">
+        <v>0.1765087843332599</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.478937</v>
+      </c>
+      <c r="N20">
+        <v>1.436811</v>
+      </c>
+      <c r="O20">
+        <v>0.0813355572127976</v>
+      </c>
+      <c r="P20">
+        <v>0.08133555721279762</v>
+      </c>
+      <c r="Q20">
+        <v>47.24694523130233</v>
+      </c>
+      <c r="R20">
+        <v>425.222507081721</v>
+      </c>
+      <c r="S20">
+        <v>0.01435644032669922</v>
+      </c>
+      <c r="T20">
+        <v>0.01435644032669922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>98.64960366666666</v>
+      </c>
+      <c r="H21">
+        <v>295.948811</v>
+      </c>
+      <c r="I21">
+        <v>0.17650878433326</v>
+      </c>
+      <c r="J21">
+        <v>0.1765087843332599</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1116203333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.334861</v>
+      </c>
+      <c r="O21">
+        <v>0.01895594202983873</v>
+      </c>
+      <c r="P21">
+        <v>0.01895594202983874</v>
+      </c>
+      <c r="Q21">
+        <v>11.01130164447456</v>
+      </c>
+      <c r="R21">
+        <v>99.101714800271</v>
+      </c>
+      <c r="S21">
+        <v>0.003345890283578583</v>
+      </c>
+      <c r="T21">
+        <v>0.003345890283578583</v>
       </c>
     </row>
   </sheetData>
